--- a/WS Test Finance Board Report.xlsx
+++ b/WS Test Finance Board Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6483BE-7638-6E4A-9226-592DCD962C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BD30A7-84E3-3649-BC66-01C8608317D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46860" yWindow="6400" windowWidth="48260" windowHeight="13960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Jan</t>
   </si>
@@ -61,21 +61,6 @@
     <t>Gross Margin (%)</t>
   </si>
   <si>
-    <t>Operating Cash Flow</t>
-  </si>
-  <si>
-    <t>Budget Variance (£)</t>
-  </si>
-  <si>
-    <t>Budget Variance (%)</t>
-  </si>
-  <si>
-    <t>EBIT Margin (%)</t>
-  </si>
-  <si>
-    <t>Operating Costs (£)</t>
-  </si>
-  <si>
     <t>Revenue (£)</t>
   </si>
   <si>
@@ -83,33 +68,6 @@
   </si>
   <si>
     <t>Gross Profit (£)</t>
-  </si>
-  <si>
-    <t>EBIT (£)</t>
-  </si>
-  <si>
-    <t>Net Profit (£)</t>
-  </si>
-  <si>
-    <t>Cash Balance (£)</t>
-  </si>
-  <si>
-    <t>Accounts Receivable (Debtors) (£)</t>
-  </si>
-  <si>
-    <t>Accounts Payable (Creditors) (£)</t>
-  </si>
-  <si>
-    <t>Capital Expenditure (CAPEX) (£)</t>
-  </si>
-  <si>
-    <t>Forecast Revenue (£)</t>
-  </si>
-  <si>
-    <t>Forecast EBIT  (£)</t>
-  </si>
-  <si>
-    <t>Forecast Net Profit  (£)</t>
   </si>
 </sst>
 </file>
@@ -119,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0_);[Red]\(&quot;£&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +103,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -519,30 +483,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -571,7 +538,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
         <v>250000</v>
@@ -590,7 +557,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -607,7 +574,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -624,7 +591,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -641,7 +608,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -658,7 +625,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -675,7 +642,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -692,7 +659,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -709,7 +676,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -726,7 +693,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -743,7 +710,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -760,7 +727,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -775,109 +742,8 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public - Uncontrolled when Printed</oddFooter>
